--- a/medicine/Mort/Cimetière_de_Kulosaari/Cimetière_de_Kulosaari.xlsx
+++ b/medicine/Mort/Cimetière_de_Kulosaari/Cimetière_de_Kulosaari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kulosaari</t>
+          <t>Cimetière_de_Kulosaari</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive de Leposaari
-Le cimetière de Kulosaari (finnois : Kulosaaren hautausmaa), aussi appelé cimetière de Leposaari (finnois : Leposaaren hautausmaa) occupe l'ile Leposaari[1].
-Leposaari est une île du golfe de Finlande dans le quartier Kulosaari à Helsinki en Finlande[2].
+Le cimetière de Kulosaari (finnois : Kulosaaren hautausmaa), aussi appelé cimetière de Leposaari (finnois : Leposaaren hautausmaa) occupe l'ile Leposaari.
+Leposaari est une île du golfe de Finlande dans le quartier Kulosaari à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kulosaari</t>
+          <t>Cimetière_de_Kulosaari</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île de Leposaari est relié à l'île Kulosaari par un remblai étroit.
-Le cimetière de Kulosaari est le plus petit cimetière sous le contrôle de l'association paroissiale d'Helsinki[3].
-Le cimetière de Kulosaari occupe une superficie d'environ deux hectares[1].
-Le cimetière de Kulosaari compte un total de 842 tombes et fin novembre 2015, environ 1 730 personnes y étaient enterrées[4].
+Le cimetière de Kulosaari est le plus petit cimetière sous le contrôle de l'association paroissiale d'Helsinki.
+Le cimetière de Kulosaari occupe une superficie d'environ deux hectares.
+Le cimetière de Kulosaari compte un total de 842 tombes et fin novembre 2015, environ 1 730 personnes y étaient enterrées.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kulosaari</t>
+          <t>Cimetière_de_Kulosaari</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jaakko Ahokas, professeur
